--- a/docs/api.xlsx
+++ b/docs/api.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="87">
   <si>
     <t>GET</t>
   </si>
@@ -45,9 +45,6 @@
     <t>PUT</t>
   </si>
   <si>
-    <t>Rank</t>
-  </si>
-  <si>
     <t>Get the menu with the id m for the open menu with the id om</t>
   </si>
   <si>
@@ -111,18 +108,6 @@
     <t>menugroups#show</t>
   </si>
   <si>
-    <t>menuitems:index</t>
-  </si>
-  <si>
-    <t>menuitems:show</t>
-  </si>
-  <si>
-    <t>menuitemsizes:index</t>
-  </si>
-  <si>
-    <t>menuitemsizes:show</t>
-  </si>
-  <si>
     <t>Get an open menu</t>
   </si>
   <si>
@@ -177,9 +162,6 @@
     <t>Get all menu items for a menu</t>
   </si>
   <si>
-    <t>Get a menu iitem for a menu</t>
-  </si>
-  <si>
     <t>/openmenus/:open_menu</t>
   </si>
   <si>
@@ -231,28 +213,73 @@
     <t>Delete a menu group for a menu</t>
   </si>
   <si>
-    <t>menuitems:update</t>
-  </si>
-  <si>
     <t>Update a menu item for a menu group</t>
   </si>
   <si>
-    <t>menuitems:destroy</t>
-  </si>
-  <si>
     <t>Delete a menu item for a menu group</t>
   </si>
   <si>
-    <t>menuitemsizes:update</t>
-  </si>
-  <si>
-    <t>menuitemsizes:delete</t>
-  </si>
-  <si>
     <t>Update a menu item size for a menu item</t>
   </si>
   <si>
     <t>Delete a menu item size for a menu item</t>
+  </si>
+  <si>
+    <t>Create a menu item for a menu group</t>
+  </si>
+  <si>
+    <t>menuitems#index</t>
+  </si>
+  <si>
+    <t>menuitems#create</t>
+  </si>
+  <si>
+    <t>menuitems#show</t>
+  </si>
+  <si>
+    <t>menuitems#update</t>
+  </si>
+  <si>
+    <t>menuitems#destroy</t>
+  </si>
+  <si>
+    <t>menuitemsizes#index</t>
+  </si>
+  <si>
+    <t>menuitemsizes#show</t>
+  </si>
+  <si>
+    <t>menuitemsizes#update</t>
+  </si>
+  <si>
+    <t>menuitemsizes#delete</t>
+  </si>
+  <si>
+    <t>/menuitems</t>
+  </si>
+  <si>
+    <t>Get all menu items</t>
+  </si>
+  <si>
+    <t>/openmenus/:open_menu/menuitems</t>
+  </si>
+  <si>
+    <t>Get all menu items for an open menu</t>
+  </si>
+  <si>
+    <t>Get a menu item for a menu</t>
+  </si>
+  <si>
+    <t>/menuitems/:menu_item</t>
+  </si>
+  <si>
+    <t>/openmenus/:open_menu/menuitems/:menu_item</t>
+  </si>
+  <si>
+    <t>Get a menu item</t>
+  </si>
+  <si>
+    <t>Get a menu item for an open menu</t>
   </si>
 </sst>
 </file>
@@ -322,8 +349,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="25">
+  <cellStyleXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -354,7 +383,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="25">
+  <cellStyles count="27">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -367,6 +396,7 @@
     <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -379,6 +409,7 @@
     <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -708,22 +739,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E29"/>
+  <dimension ref="A1:D34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="200" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="200" workbookViewId="0">
+      <selection activeCell="A35" sqref="A35"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="5.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="113.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="140.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="113.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="140.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1">
+    <row r="1" spans="1:4" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>10</v>
@@ -732,492 +764,472 @@
         <v>11</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
-      <c r="A2">
-        <v>1</v>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="C2" t="s">
         <v>19</v>
       </c>
       <c r="D2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="D3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4">
-        <v>1</v>
-      </c>
-      <c r="B4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="B8" t="s">
+        <v>48</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" t="s">
+        <v>49</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" t="s">
+        <v>49</v>
+      </c>
+      <c r="C10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11" t="s">
+        <v>50</v>
+      </c>
+      <c r="C11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>3</v>
+      </c>
+      <c r="B12" t="s">
+        <v>50</v>
+      </c>
+      <c r="C12" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" t="s">
+        <v>51</v>
+      </c>
+      <c r="C13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
+        <v>5</v>
+      </c>
+      <c r="B14" t="s">
+        <v>51</v>
+      </c>
+      <c r="C14" t="s">
+        <v>16</v>
+      </c>
+      <c r="D14" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" t="s">
+        <v>6</v>
+      </c>
+      <c r="B15" t="s">
+        <v>51</v>
+      </c>
+      <c r="C15" t="s">
+        <v>17</v>
+      </c>
+      <c r="D15" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B16" t="s">
+        <v>52</v>
+      </c>
+      <c r="C16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" t="s">
+        <v>0</v>
+      </c>
+      <c r="B17" t="s">
         <v>53</v>
       </c>
-      <c r="D4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5">
-        <v>1</v>
-      </c>
-      <c r="B5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="C17" t="s">
+        <v>28</v>
+      </c>
+      <c r="D17" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" t="s">
+        <v>5</v>
+      </c>
+      <c r="B18" t="s">
         <v>53</v>
       </c>
-      <c r="D5" t="s">
-        <v>23</v>
-      </c>
-      <c r="E5" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6">
-        <v>1</v>
-      </c>
-      <c r="B6" t="s">
+      <c r="C18" t="s">
+        <v>60</v>
+      </c>
+      <c r="D18" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" t="s">
         <v>6</v>
       </c>
-      <c r="C6" t="s">
+      <c r="B19" t="s">
         <v>53</v>
       </c>
-      <c r="D6" t="s">
-        <v>24</v>
-      </c>
-      <c r="E6" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7">
-        <v>2</v>
-      </c>
-      <c r="B7" t="s">
-        <v>0</v>
-      </c>
-      <c r="C7" t="s">
+      <c r="C19" t="s">
+        <v>61</v>
+      </c>
+      <c r="D19" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B20" t="s">
+        <v>55</v>
+      </c>
+      <c r="C20" t="s">
+        <v>69</v>
+      </c>
+      <c r="D20" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" t="s">
+        <v>3</v>
+      </c>
+      <c r="B21" t="s">
+        <v>55</v>
+      </c>
+      <c r="C21" t="s">
+        <v>70</v>
+      </c>
+      <c r="D21" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B22" t="s">
+        <v>56</v>
+      </c>
+      <c r="C22" t="s">
+        <v>71</v>
+      </c>
+      <c r="D22" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" t="s">
+        <v>5</v>
+      </c>
+      <c r="B23" t="s">
+        <v>56</v>
+      </c>
+      <c r="C23" t="s">
+        <v>72</v>
+      </c>
+      <c r="D23" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" t="s">
+        <v>6</v>
+      </c>
+      <c r="B24" t="s">
+        <v>56</v>
+      </c>
+      <c r="C24" t="s">
+        <v>73</v>
+      </c>
+      <c r="D24" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" t="s">
+        <v>0</v>
+      </c>
+      <c r="B25" t="s">
+        <v>57</v>
+      </c>
+      <c r="C25" t="s">
+        <v>74</v>
+      </c>
+      <c r="D25" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" t="s">
+        <v>0</v>
+      </c>
+      <c r="B26" t="s">
+        <v>58</v>
+      </c>
+      <c r="C26" t="s">
+        <v>75</v>
+      </c>
+      <c r="D26" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" t="s">
+        <v>5</v>
+      </c>
+      <c r="B27" t="s">
+        <v>58</v>
+      </c>
+      <c r="C27" t="s">
+        <v>76</v>
+      </c>
+      <c r="D27" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" t="s">
+        <v>6</v>
+      </c>
+      <c r="B28" t="s">
+        <v>58</v>
+      </c>
+      <c r="C28" t="s">
+        <v>77</v>
+      </c>
+      <c r="D28" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" t="s">
+        <v>0</v>
+      </c>
+      <c r="B29" t="s">
         <v>54</v>
       </c>
-      <c r="D7" t="s">
-        <v>26</v>
-      </c>
-      <c r="E7" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8">
-        <v>2</v>
-      </c>
-      <c r="B8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C8" t="s">
-        <v>54</v>
-      </c>
-      <c r="D8" t="s">
-        <v>25</v>
-      </c>
-      <c r="E8" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9">
-        <v>3</v>
-      </c>
-      <c r="B9" t="s">
-        <v>0</v>
-      </c>
-      <c r="C9" t="s">
-        <v>55</v>
-      </c>
-      <c r="D9" t="s">
-        <v>27</v>
-      </c>
-      <c r="E9" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10">
-        <v>3</v>
-      </c>
-      <c r="B10" t="s">
-        <v>3</v>
-      </c>
-      <c r="C10" t="s">
-        <v>55</v>
-      </c>
-      <c r="D10" t="s">
-        <v>13</v>
-      </c>
-      <c r="E10" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11">
-        <v>4</v>
-      </c>
-      <c r="B11" t="s">
-        <v>0</v>
-      </c>
-      <c r="C11" t="s">
-        <v>56</v>
-      </c>
-      <c r="D11" t="s">
-        <v>15</v>
-      </c>
-      <c r="E11" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12">
-        <v>4</v>
-      </c>
-      <c r="B12" t="s">
-        <v>3</v>
-      </c>
-      <c r="C12" t="s">
-        <v>56</v>
-      </c>
-      <c r="D12" t="s">
-        <v>14</v>
-      </c>
-      <c r="E12" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13">
-        <v>4</v>
-      </c>
-      <c r="B13" t="s">
-        <v>0</v>
-      </c>
-      <c r="C13" t="s">
-        <v>57</v>
-      </c>
-      <c r="D13" t="s">
-        <v>16</v>
-      </c>
-      <c r="E13" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14">
-        <v>4</v>
-      </c>
-      <c r="B14" t="s">
-        <v>5</v>
-      </c>
-      <c r="C14" t="s">
-        <v>57</v>
-      </c>
-      <c r="D14" t="s">
-        <v>17</v>
-      </c>
-      <c r="E14" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15">
-        <v>4</v>
-      </c>
-      <c r="B15" t="s">
-        <v>6</v>
-      </c>
-      <c r="C15" t="s">
-        <v>57</v>
-      </c>
-      <c r="D15" t="s">
-        <v>18</v>
-      </c>
-      <c r="E15" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16">
-        <v>5</v>
-      </c>
-      <c r="B16" t="s">
-        <v>0</v>
-      </c>
-      <c r="C16" t="s">
-        <v>58</v>
-      </c>
-      <c r="D16" t="s">
-        <v>28</v>
-      </c>
-      <c r="E16" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17">
-        <v>5</v>
-      </c>
-      <c r="B17" t="s">
-        <v>0</v>
-      </c>
-      <c r="C17" t="s">
+      <c r="C29" t="s">
+        <v>69</v>
+      </c>
+      <c r="D29" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" t="s">
+        <v>0</v>
+      </c>
+      <c r="B30" t="s">
         <v>59</v>
       </c>
-      <c r="D17" t="s">
-        <v>29</v>
-      </c>
-      <c r="E17" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18">
-        <v>5</v>
-      </c>
-      <c r="B18" t="s">
-        <v>5</v>
-      </c>
-      <c r="C18" t="s">
-        <v>59</v>
-      </c>
-      <c r="D18" t="s">
-        <v>66</v>
-      </c>
-      <c r="E18" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19">
-        <v>5</v>
-      </c>
-      <c r="B19" t="s">
-        <v>6</v>
-      </c>
-      <c r="C19" t="s">
-        <v>59</v>
-      </c>
-      <c r="D19" t="s">
-        <v>67</v>
-      </c>
-      <c r="E19" t="s">
+      <c r="C30" t="s">
+        <v>71</v>
+      </c>
+      <c r="D30" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" t="s">
+        <v>0</v>
+      </c>
+      <c r="B31" t="s">
+        <v>78</v>
+      </c>
+      <c r="C31" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20">
-        <v>6</v>
-      </c>
-      <c r="B20" t="s">
-        <v>0</v>
-      </c>
-      <c r="C20" t="s">
-        <v>61</v>
-      </c>
-      <c r="D20" t="s">
-        <v>30</v>
-      </c>
-      <c r="E20" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21">
-        <v>6</v>
-      </c>
-      <c r="B21" t="s">
-        <v>0</v>
-      </c>
-      <c r="C21" t="s">
-        <v>62</v>
-      </c>
-      <c r="D21" t="s">
-        <v>31</v>
-      </c>
-      <c r="E21" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="A22">
-        <v>6</v>
-      </c>
-      <c r="B22" t="s">
-        <v>5</v>
-      </c>
-      <c r="C22" t="s">
-        <v>62</v>
-      </c>
-      <c r="D22" t="s">
-        <v>70</v>
-      </c>
-      <c r="E22" t="s">
+      <c r="D31" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" t="s">
+        <v>0</v>
+      </c>
+      <c r="B32" t="s">
+        <v>83</v>
+      </c>
+      <c r="C32" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="A23">
-        <v>6</v>
-      </c>
-      <c r="B23" t="s">
-        <v>6</v>
-      </c>
-      <c r="C23" t="s">
-        <v>62</v>
-      </c>
-      <c r="D23" t="s">
-        <v>72</v>
-      </c>
-      <c r="E23" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="A24">
-        <v>7</v>
-      </c>
-      <c r="B24" t="s">
-        <v>0</v>
-      </c>
-      <c r="C24" t="s">
-        <v>63</v>
-      </c>
-      <c r="D24" t="s">
-        <v>32</v>
-      </c>
-      <c r="E24" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
-      <c r="A25">
-        <v>7</v>
-      </c>
-      <c r="B25" t="s">
-        <v>0</v>
-      </c>
-      <c r="C25" t="s">
-        <v>64</v>
-      </c>
-      <c r="D25" t="s">
-        <v>33</v>
-      </c>
-      <c r="E25" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
-      <c r="A26">
-        <v>7</v>
-      </c>
-      <c r="B26" t="s">
-        <v>5</v>
-      </c>
-      <c r="C26" t="s">
-        <v>64</v>
-      </c>
-      <c r="D26" t="s">
-        <v>74</v>
-      </c>
-      <c r="E26" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
-      <c r="A27">
-        <v>7</v>
-      </c>
-      <c r="B27" t="s">
-        <v>6</v>
-      </c>
-      <c r="C27" t="s">
-        <v>64</v>
-      </c>
-      <c r="D27" t="s">
-        <v>75</v>
-      </c>
-      <c r="E27" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5">
-      <c r="A28">
-        <v>8</v>
-      </c>
-      <c r="B28" t="s">
-        <v>0</v>
-      </c>
-      <c r="C28" t="s">
-        <v>60</v>
-      </c>
-      <c r="D28" t="s">
-        <v>30</v>
-      </c>
-      <c r="E28" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
-      <c r="A29">
-        <v>8</v>
-      </c>
-      <c r="B29" t="s">
-        <v>0</v>
-      </c>
-      <c r="C29" t="s">
-        <v>65</v>
-      </c>
-      <c r="D29" t="s">
-        <v>31</v>
-      </c>
-      <c r="E29" t="s">
-        <v>52</v>
+      <c r="D32" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" t="s">
+        <v>0</v>
+      </c>
+      <c r="B33" t="s">
+        <v>80</v>
+      </c>
+      <c r="C33" t="s">
+        <v>69</v>
+      </c>
+      <c r="D33" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" t="s">
+        <v>0</v>
+      </c>
+      <c r="B34" t="s">
+        <v>84</v>
+      </c>
+      <c r="C34" t="s">
+        <v>71</v>
+      </c>
+      <c r="D34" t="s">
+        <v>86</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:D21">
-    <sortCondition ref="A2:A21"/>
-  </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
